--- a/employeedata.xlsx
+++ b/employeedata.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ndje.bayi@handsinhands.org</t>
+          <t>ndje.bayi@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -458,7 +458,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nnomo.kouma@handsinhands.org</t>
+          <t>nnomo.kouma@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>venant.boris@handsinhands.org</t>
+          <t>venant.boris@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>raissa.angeline@handsinhands.org</t>
+          <t>raissa.angeline@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ngo.bell@handsinhands.org</t>
+          <t>ngo.bell@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>honorine.marthe@handsinhands.org</t>
+          <t>honorine.marthe@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mvondo.etoa@handsinhands.org</t>
+          <t>mvondo.etoa@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>albert.roland@handsinhands.org</t>
+          <t>albert.roland@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ndjako.cyrille@handsinhands.org</t>
+          <t>ndjako.cyrille@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>christian.cedric@handsinhands.org</t>
+          <t>christian.cedric@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>yamb.jean@handsinhands.org</t>
+          <t>yamb.jean@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>calving.rodrigue@handsinhands.org</t>
+          <t>calving.rodrigue@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kaldjob.nouck@handsinhands.org</t>
+          <t>kaldjob.nouck@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baba.john@handsinhands.org</t>
+          <t>baba.john@helpinghands.cm</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>peha.yvette@handsinhands.org</t>
+          <t>peha.yvette@helpinghands.cm</t>
         </is>
       </c>
     </row>

--- a/employeedata.xlsx
+++ b/employeedata.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="600" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employees_database" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,11 +414,16 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="51.7109375" customWidth="1" min="2" max="2"/>
+    <col width="31.5703125" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -446,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ndje.bayi@helpinghands.cm</t>
+          <t>ndje.bayi@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -458,7 +462,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nnomo.kouma@helpinghands.cm</t>
+          <t>nnomo.kouma@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -470,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>venant.boris@helpinghands.cm</t>
+          <t>venant.boris@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -482,7 +486,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>raissa.angeline@helpinghands.cm</t>
+          <t>raissa.angeline@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -494,7 +498,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ngo.bell@helpinghands.cm</t>
+          <t>ngo.bell@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -506,7 +510,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>honorine.marthe@helpinghands.cm</t>
+          <t>honorine.marthe@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -518,7 +522,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mvondo.etoa@helpinghands.cm</t>
+          <t>mvondo.etoa@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -530,7 +534,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>albert.roland@helpinghands.cm</t>
+          <t>albert.roland@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -542,7 +546,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ndjako.cyrille@helpinghands.cm</t>
+          <t>ndjako.cyrille@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -554,7 +558,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>christian.cedric@helpinghands.cm</t>
+          <t>christian.cedric@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -566,7 +570,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>yamb.jean@helpinghands.cm</t>
+          <t>yamb.jean@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -578,7 +582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>calving.rodrigue@helpinghands.cm</t>
+          <t>calving.rodrigue@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -590,7 +594,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kaldjob.nouck@helpinghands.cm</t>
+          <t>kaldjob.nouck@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -602,7 +606,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baba.john@helpinghands.cm</t>
+          <t>baba.john@handsinhands.org</t>
         </is>
       </c>
     </row>
@@ -614,7 +618,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>peha.yvette@helpinghands.cm</t>
+          <t>peha.yvette@handsinhands.org</t>
         </is>
       </c>
     </row>
